--- a/jpcore-r4/feature/swg5-add_terminologies/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/feature/swg5-add_terminologies/StructureDefinition-jp-procedure.xlsx
@@ -539,8 +539,7 @@
   </si>
   <si>
     <t>参照は、実際のFHIRリソースへの参照であり、解決可能でなければならない（アクセス制御、一時的な利用不能などを可能にする）。解決には、URLからの検索、またはリソースタイプによって該当する場合は、絶対参照を正規のURLとして扱い、ローカルレジストリ/リポジトリで検索することができる。 
-【JP-Core仕様】
-Observation_LabResultにならい、任意。</t>
+【JP-Core仕様】Observation_LabResultにならい、任意。</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -569,8 +568,7 @@
     <t>The MedicationAdministration resource has a partOf reference to Procedure, but this is not a circular reference.   For example, the anesthesia MedicationAdministration is part of the surgical Procedure (MedicationAdministration.partOf = Procedure).  For example, the procedure to insert the IV port for an IV medication administration is part of the medication administration (Procedure.partOf = MedicationAdministration).
 MedicationAdministrationリソースにはProcedureへのpartOf参照があるが、これは循環参照ではない。たとえば、麻酔MedicationAdministrationは外科的処置の一部である（MedicationAdministration.partOf = Procedure）。
 また、たとえば、IV投薬管理用にIVポートを挿入する手順は、投薬管理の一部である（Procedure.partOf = MedicationAdministration）。
-【JP-Core仕様】
-Observation_LabResultにならい、任意。</t>
+【JP-Core仕様】Observation_LabResultにならい、任意。</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -1021,7 +1019,7 @@
     <t>When the procedure was performed プロシジャーが実施された時期</t>
   </si>
   <si>
-    <t>Procedureが行われた推定または実際の日付、日時、期間、または年齢。複数の日付にまたがる複雑なProcedureをサポートするために期間を許可し、Procdedureの長さを把握することも可能。</t>
+    <t>Procedureが行われた推定または実際の日付、日時、期間、または年齢。複数の日付にまたがる複雑なProcedureをサポートするために期間を許可し、Procedureの長さを把握することも可能。</t>
   </si>
   <si>
     <t>Age is generally used when the patient reports an age at which the procedure was performed. Range is generally used when the patient reports an age range when the procedure was performed, such as sometime between 20-25 years old.  dateTime supports a range of precision due to some procedures being reported as past procedures that might not have millisecond precision while other procedures performed and documented during the encounter might have more precise UTC timestamps with timezone.
@@ -1056,7 +1054,7 @@
 記録を記録し、その内容に責任を負う個人。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
@@ -1136,8 +1134,7 @@
   </si>
   <si>
     <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供するべきである。
- 【JP-Core仕様】
-当面利用しない。</t>
+ 【JP-Core仕様】当面利用しない。</t>
   </si>
   <si>
     <t>Allows disambiguation of the types of involvement of different performers.</t>
